--- a/REPASO PARA EL PARCIAL/BASES DE DATOS LIMPIAS/BASE DE DATOS.xlsx
+++ b/REPASO PARA EL PARCIAL/BASES DE DATOS LIMPIAS/BASE DE DATOS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t xml:space="preserve">NOMBRE DE BASE DE DATOS </t>
   </si>
@@ -162,7 +162,13 @@
     <t>carbon (si ) /usa el de BASE DE DATOS</t>
   </si>
   <si>
-    <t>freedom (completo)</t>
+    <t>freedom (maso_ompleto) USAR Cristian</t>
+  </si>
+  <si>
+    <t>HAPPINES</t>
+  </si>
+  <si>
+    <t>PC5 CALIFICADA</t>
   </si>
 </sst>
 </file>
@@ -796,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,7 +935,7 @@
       </c>
       <c r="C12" s="15"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" s="25" t="s">
         <v>45</v>
@@ -1012,9 +1018,11 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
